--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Fortuné_Théodore_Eydoux/Joseph_Fortuné_Théodore_Eydoux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Fortuné_Théodore_Eydoux/Joseph_Fortuné_Théodore_Eydoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Fortun%C3%A9_Th%C3%A9odore_Eydoux</t>
+          <t>Joseph_Fortuné_Théodore_Eydoux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Fortuné Théodore Eydoux, né le 23 avril 1802 à Toulon (Var) et mort le 6 juillet 1841 à Saint-Pierre (Martinique)[1], fut chirurgien de la Marine française à partir de 1821.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Fortuné Théodore Eydoux, né le 23 avril 1802 à Toulon (Var) et mort le 6 juillet 1841 à Saint-Pierre (Martinique), fut chirurgien de la Marine française à partir de 1821.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Fortun%C3%A9_Th%C3%A9odore_Eydoux</t>
+          <t>Joseph_Fortuné_Théodore_Eydoux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 7 mai 1840, il est nommé second médecin en chef à la Martinique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 mai 1840, il est nommé second médecin en chef à la Martinique.
 Il participa aux expéditions de la Favorite et de la Bonite. Il termina sa vie à l'hôpital naval de la Martinique (Saint-Pierre).
 Il est l'auteur de travaux naturalistes qu'il signe avec Paul Gervais (1816-1879).
 </t>
